--- a/biology/Botanique/Pseudarthria_hookeri/Pseudarthria_hookeri.xlsx
+++ b/biology/Botanique/Pseudarthria_hookeri/Pseudarthria_hookeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pseudarthria hookeri est une espèce de plantes de la famille des Fabaceae et du genre Pseudarthria, présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pseudarthria hookeri est une espèce de plantes de la famille des Fabaceae et du genre Pseudarthria, présente en Afrique tropicale.
 Son épithète spécifique hookeri rend hommage au botaniste britannique Joseph Dalton Hooker.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce argyrophylla est un arbuste érigé de 2 ou 3 m de hauteur, avec de petites fleurs et des panicules assez denses[2].
-La sous-espèce hookeri est une herbe semi-ligneuse d'environ 45 cm, avec des feuilles pubescentes, vertes dessous, et des fleurs blanchâtres en épi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce argyrophylla est un arbuste érigé de 2 ou 3 m de hauteur, avec de petites fleurs et des panicules assez denses.
+La sous-espèce hookeri est une herbe semi-ligneuse d'environ 45 cm, avec des feuilles pubescentes, vertes dessous, et des fleurs blanchâtres en épi.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente en Afrique de l'Ouest et du Centre, jusqu'au Soudan et à l'Afrique du Sud.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 juin 2020)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Pseudarthria hookeri var. argyrophylla Verdc.
 variété Pseudarthria hookeri var. hookeri</t>
         </is>
